--- a/locatorsDemo.xlsx
+++ b/locatorsDemo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29415"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2517A6ED-648B-4358-9C3C-DB7E87136F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF09BE96-60ED-4B00-A36D-993161CD2560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="185">
   <si>
     <t>page</t>
   </si>
@@ -425,13 +425,16 @@
     <t>textbox</t>
   </si>
   <si>
+    <t>{"name":"WrongMobile Field"}</t>
+  </si>
+  <si>
+    <t>passwordInput</t>
+  </si>
+  <si>
+    <t>{"name":"WrongPasswordField"}</t>
+  </si>
+  <si>
     <t>{"name":"Mobile Number"}</t>
-  </si>
-  <si>
-    <t>passwordInput</t>
-  </si>
-  <si>
-    <t>{"name":"WrongPasswordField"}</t>
   </si>
   <si>
     <t>formPasswordInput</t>
@@ -2609,7 +2612,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2682,7 +2685,7 @@
         <v>127</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -2690,7 +2693,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -2699,7 +2702,7 @@
         <v>127</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -2707,13 +2710,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -2722,7 +2725,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -2739,7 +2742,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -2756,13 +2759,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -2771,7 +2774,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -2780,7 +2783,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -2788,13 +2791,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>16</v>
@@ -2809,7 +2812,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
@@ -2820,13 +2823,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -2837,13 +2840,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>16</v>
@@ -2854,13 +2857,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>16</v>
@@ -2871,13 +2874,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>16</v>
@@ -3331,7 +3334,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -3340,7 +3343,7 @@
         <v>85</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -3348,7 +3351,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -3357,7 +3360,7 @@
         <v>85</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -3365,13 +3368,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -3380,13 +3383,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -3397,13 +3400,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -3414,13 +3417,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
@@ -3429,13 +3432,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -3444,13 +3447,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -3461,13 +3464,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
@@ -3478,16 +3481,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -3495,16 +3498,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -3512,13 +3515,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -3527,13 +3530,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -3610,7 +3613,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -3619,7 +3622,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -3636,7 +3639,7 @@
         <v>85</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -3722,7 +3725,7 @@
         <v>85</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -3730,7 +3733,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -3739,7 +3742,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3792,7 +3795,7 @@
         <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -3809,7 +3812,7 @@
         <v>127</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -3826,7 +3829,7 @@
         <v>127</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -3834,7 +3837,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -3843,7 +3846,7 @@
         <v>127</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -3851,13 +3854,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -3866,7 +3869,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -3883,7 +3886,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -3900,13 +3903,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -3924,7 +3927,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -3932,13 +3935,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>16</v>
@@ -3953,7 +3956,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
@@ -3964,13 +3967,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -3981,13 +3984,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>16</v>
@@ -3998,13 +4001,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>16</v>
@@ -4015,13 +4018,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>16</v>

--- a/locatorsDemo.xlsx
+++ b/locatorsDemo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29415"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF09BE96-60ED-4B00-A36D-993161CD2560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AE5CF7F-2DC8-4E01-A8A0-DAA6516A6FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="186">
   <si>
     <t>page</t>
   </si>
@@ -446,154 +446,157 @@
     <t>loginButton</t>
   </si>
   <si>
+    <t>#login-button-wrong</t>
+  </si>
+  <si>
+    <t>loginButtonFromPopup</t>
+  </si>
+  <si>
+    <t>loginButtonfromHeader</t>
+  </si>
+  <si>
+    <t>signUpButton</t>
+  </si>
+  <si>
+    <t>#sign-up-btn</t>
+  </si>
+  <si>
+    <t>signUpButtonfromHamburger</t>
+  </si>
+  <si>
+    <t>{"name":"Sign Up"}</t>
+  </si>
+  <si>
+    <t>hamburgerMenu</t>
+  </si>
+  <si>
+    <t>#header-hamburger-btn</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>CasinoButton</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>welcomeUser</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>(dynamic: userData.user1.username)</t>
+  </si>
+  <si>
+    <t>betInfluencer</t>
+  </si>
+  <si>
+    <t>Bet Influencer</t>
+  </si>
+  <si>
+    <t>summaryButton</t>
+  </si>
+  <si>
+    <t>{"name":"Summary"}</t>
+  </si>
+  <si>
+    <t>detailButton</t>
+  </si>
+  <si>
+    <t>{"name":"Details"}</t>
+  </si>
+  <si>
+    <t>lastFourWeeksCanvas</t>
+  </si>
+  <si>
+    <t>#lastfourMonthsChart</t>
+  </si>
+  <si>
+    <t>detailedBreakdownButton</t>
+  </si>
+  <si>
+    <t>Detailed breakdown</t>
+  </si>
+  <si>
+    <t>totalMonthlyRevenue</t>
+  </si>
+  <si>
+    <t>Total monthly revenue</t>
+  </si>
+  <si>
+    <t>monthSelector</t>
+  </si>
+  <si>
+    <t>#monthSelector</t>
+  </si>
+  <si>
+    <t>sortBySelector</t>
+  </si>
+  <si>
+    <t>#sortSelector</t>
+  </si>
+  <si>
+    <t>betsTaken</t>
+  </si>
+  <si>
+    <t>Bets taken</t>
+  </si>
+  <si>
+    <t>codesUsed</t>
+  </si>
+  <si>
+    <t>Codes used</t>
+  </si>
+  <si>
+    <t>nextButton</t>
+  </si>
+  <si>
+    <t>.NextPrevBtn</t>
+  </si>
+  <si>
+    <t>{"name":"Next"}</t>
+  </si>
+  <si>
+    <t>previousButton</t>
+  </si>
+  <si>
+    <t>{"name":"Previous"}</t>
+  </si>
+  <si>
+    <t>revnueGraph</t>
+  </si>
+  <si>
+    <t>#lastPrevMonthChart</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>aviatorLink</t>
+  </si>
+  <si>
+    <t>{"name":"/the-chicken-game-rr/i"}</t>
+  </si>
+  <si>
+    <t>{"name":"Favourite Game"}</t>
+  </si>
+  <si>
+    <t>homePage</t>
+  </si>
+  <si>
+    <t>{"name":"Home"}</t>
+  </si>
+  <si>
     <t>#login-btn</t>
-  </si>
-  <si>
-    <t>loginButtonFromPopup</t>
-  </si>
-  <si>
-    <t>loginButtonfromHeader</t>
-  </si>
-  <si>
-    <t>signUpButton</t>
-  </si>
-  <si>
-    <t>#sign-up-btn</t>
-  </si>
-  <si>
-    <t>signUpButtonfromHamburger</t>
-  </si>
-  <si>
-    <t>{"name":"Sign Up"}</t>
-  </si>
-  <si>
-    <t>hamburgerMenu</t>
-  </si>
-  <si>
-    <t>#header-hamburger-btn</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>CasinoButton</t>
-  </si>
-  <si>
-    <t>Casino</t>
-  </si>
-  <si>
-    <t>welcomeUser</t>
-  </si>
-  <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>(dynamic: userData.user1.username)</t>
-  </si>
-  <si>
-    <t>betInfluencer</t>
-  </si>
-  <si>
-    <t>Bet Influencer</t>
-  </si>
-  <si>
-    <t>summaryButton</t>
-  </si>
-  <si>
-    <t>{"name":"Summary"}</t>
-  </si>
-  <si>
-    <t>detailButton</t>
-  </si>
-  <si>
-    <t>{"name":"Details"}</t>
-  </si>
-  <si>
-    <t>lastFourWeeksCanvas</t>
-  </si>
-  <si>
-    <t>#lastfourMonthsChart</t>
-  </si>
-  <si>
-    <t>detailedBreakdownButton</t>
-  </si>
-  <si>
-    <t>Detailed breakdown</t>
-  </si>
-  <si>
-    <t>totalMonthlyRevenue</t>
-  </si>
-  <si>
-    <t>Total monthly revenue</t>
-  </si>
-  <si>
-    <t>monthSelector</t>
-  </si>
-  <si>
-    <t>#monthSelector</t>
-  </si>
-  <si>
-    <t>sortBySelector</t>
-  </si>
-  <si>
-    <t>#sortSelector</t>
-  </si>
-  <si>
-    <t>betsTaken</t>
-  </si>
-  <si>
-    <t>Bets taken</t>
-  </si>
-  <si>
-    <t>codesUsed</t>
-  </si>
-  <si>
-    <t>Codes used</t>
-  </si>
-  <si>
-    <t>nextButton</t>
-  </si>
-  <si>
-    <t>.NextPrevBtn</t>
-  </si>
-  <si>
-    <t>{"name":"Next"}</t>
-  </si>
-  <si>
-    <t>previousButton</t>
-  </si>
-  <si>
-    <t>{"name":"Previous"}</t>
-  </si>
-  <si>
-    <t>revnueGraph</t>
-  </si>
-  <si>
-    <t>#lastPrevMonthChart</t>
-  </si>
-  <si>
-    <t>revenue</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>aviatorLink</t>
-  </si>
-  <si>
-    <t>{"name":"/the-chicken-game-rr/i"}</t>
-  </si>
-  <si>
-    <t>{"name":"Favourite Game"}</t>
-  </si>
-  <si>
-    <t>homePage</t>
-  </si>
-  <si>
-    <t>{"name":"Home"}</t>
   </si>
 </sst>
 </file>
@@ -2612,7 +2615,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2721,7 +2724,9 @@
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
@@ -3860,7 +3865,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
